--- a/03_regression/quiz/key/quiz_3.2.xlsx
+++ b/03_regression/quiz/key/quiz_3.2.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phall/workspace/GWU_data_mining/03_regression/quiz/key/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisa Song\Documents\MBA\MBA_Fall_17\Data Mining\Quiz Spring 18\Quiz 04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22100" windowHeight="15020" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9023" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ROC_1" sheetId="1" r:id="rId1"/>
     <sheet name="ROC_2" sheetId="2" r:id="rId2"/>
+    <sheet name="ROC_1_Revised" sheetId="3" r:id="rId3"/>
+    <sheet name="ROC_2_Revised" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="29">
   <si>
     <t>(Actual,Predicted)</t>
   </si>
@@ -117,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +152,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +168,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -324,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -354,6 +368,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,6 +508,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -589,7 +616,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E61D-3A4B-B62B-0A987A77D15A}"/>
+              <c16:uniqueId val="{00000000-1C4F-43B4-A18C-DF8735E55B4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -659,6 +686,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -752,6 +780,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -863,6 +892,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -970,7 +1000,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-059C-F941-8394-DE45355FBC61}"/>
+              <c16:uniqueId val="{00000000-DD51-49BC-BC39-526699226CB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1040,6 +1070,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1133,6 +1164,789 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84734610"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>ROC Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ROC_1_Revised!$B$20:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ROC_1_Revised!$C$20:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9A5-4BC1-847A-1692527D8E93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="31876235"/>
+        <c:axId val="23562932"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="31876235"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>1 - Specificity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23562932"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="23562932"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Sensitivity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31876235"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>ROC Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ROC_2_Revised!$B$20:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ROC_2_Revised!$C$20:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D08A-446D-A3B7-952E2A8291F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="84734610"/>
+        <c:axId val="64015803"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84734610"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>1 - Specificity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64015803"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64015803"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Sensitivity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1211,20 +2025,14 @@
       <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>116280</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1247,26 +2055,94 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9361</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>111960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>602280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9361</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1300,7 +2176,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1312,7 +2188,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1359,23 +2235,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1411,23 +2270,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1579,19 +2421,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.33203125"/>
+    <col min="1" max="1" width="8.86328125"/>
+    <col min="2" max="2" width="10.265625"/>
+    <col min="3" max="1025" width="8.86328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:39" x14ac:dyDescent="0.45">
       <c r="H1" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1656,7 +2500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.45">
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +2538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>6</v>
       </c>
@@ -1714,7 +2558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1794,11 +2638,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="27">
         <v>0.9</v>
       </c>
       <c r="E6" s="6">
@@ -1892,11 +2736,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="27">
         <v>0.7</v>
       </c>
       <c r="E7" s="11">
@@ -1954,11 +2798,11 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="27">
         <v>0.7</v>
       </c>
       <c r="E8" s="11">
@@ -2052,11 +2896,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="27">
         <v>0.7</v>
       </c>
       <c r="E9" s="11">
@@ -2150,11 +2994,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B10" s="11">
         <v>0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="27">
         <v>0.5</v>
       </c>
       <c r="E10" s="11">
@@ -2212,11 +3056,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="27">
         <v>0.5</v>
       </c>
       <c r="E11" s="11">
@@ -2274,11 +3118,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B12" s="11">
         <v>0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="27">
         <v>0.5</v>
       </c>
       <c r="E12" s="11">
@@ -2378,11 +3222,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="27">
         <v>0.45</v>
       </c>
       <c r="E13" s="11">
@@ -2482,11 +3326,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B14" s="11">
         <v>0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="27">
         <v>0.35</v>
       </c>
       <c r="E14" s="11">
@@ -2544,11 +3388,11 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B15" s="15">
         <v>0</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="27">
         <v>0.1</v>
       </c>
       <c r="E15" s="15">
@@ -2612,7 +3456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2620,7 +3464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="6">
         <f>I12</f>
         <v>1</v>
@@ -2630,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="11">
         <f>O12</f>
         <v>0.8</v>
@@ -2640,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="11">
         <f>U12</f>
         <v>0.6</v>
@@ -2650,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="11">
         <f>AA12</f>
         <v>0</v>
@@ -2660,7 +3504,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="11">
         <f>AG12</f>
         <v>0</v>
@@ -2670,7 +3514,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" s="15">
         <f>AM12</f>
         <v>0</v>
@@ -2680,27 +3524,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="17" t="s">
         <v>28</v>
       </c>
@@ -2713,19 +3557,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ10" sqref="AQ10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.33203125"/>
+    <col min="1" max="1" width="8.86328125"/>
+    <col min="2" max="2" width="10.265625"/>
+    <col min="3" max="1025" width="8.86328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:39" x14ac:dyDescent="0.45">
       <c r="H1" t="s">
         <v>0</v>
       </c>
@@ -2745,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2790,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.45">
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2828,7 +3674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>6</v>
       </c>
@@ -2848,7 +3694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -2928,11 +3774,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="27">
         <v>0.9</v>
       </c>
       <c r="E6" s="6">
@@ -3026,11 +3872,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="27">
         <v>0.85</v>
       </c>
       <c r="E7" s="11">
@@ -3088,11 +3934,11 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="27">
         <v>0.85</v>
       </c>
       <c r="E8" s="11">
@@ -3186,11 +4032,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="27">
         <v>0.65</v>
       </c>
       <c r="E9" s="11">
@@ -3284,11 +4130,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B10" s="11">
         <v>0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="27">
         <v>0.65</v>
       </c>
       <c r="E10" s="11">
@@ -3346,11 +4192,11 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="27">
         <v>0.5</v>
       </c>
       <c r="E11" s="11">
@@ -3408,11 +4254,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B12" s="11">
         <v>0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="27">
         <v>0.5</v>
       </c>
       <c r="E12" s="11">
@@ -3512,11 +4358,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="27">
         <v>0.45</v>
       </c>
       <c r="E13" s="11">
@@ -3616,11 +4462,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B14" s="11">
         <v>0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="27">
         <v>0.15</v>
       </c>
       <c r="E14" s="11">
@@ -3678,11 +4524,11 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B15" s="15">
         <v>0</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="27">
         <v>0.1</v>
       </c>
       <c r="E15" s="15">
@@ -3746,7 +4592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -3754,7 +4600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="6">
         <f>I12</f>
         <v>1</v>
@@ -3764,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="11">
         <f>O12</f>
         <v>0.6</v>
@@ -3774,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="11">
         <f>U12</f>
         <v>0.6</v>
@@ -3784,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="11">
         <f>AA12</f>
         <v>0.19999999999999996</v>
@@ -3794,7 +4640,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="11">
         <f>AG12</f>
         <v>0</v>
@@ -3804,7 +4650,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" s="15">
         <f>AM12</f>
         <v>0</v>
@@ -3814,27 +4660,2289 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AM38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="28">
+        <v>1</v>
+      </c>
+      <c r="L6" s="34">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>1</v>
+      </c>
+      <c r="R6" s="34">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="28">
+        <v>1</v>
+      </c>
+      <c r="X6" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC6" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="34">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="K7" s="30">
+        <v>1</v>
+      </c>
+      <c r="L7" s="35">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>1</v>
+      </c>
+      <c r="R7" s="35">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="W7" s="30">
+        <v>1</v>
+      </c>
+      <c r="X7" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AC7" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AI7" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30">
+        <v>1</v>
+      </c>
+      <c r="L8" s="35">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="N8" s="3">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>1</v>
+      </c>
+      <c r="R8" s="35">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="T8" s="3">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
+        <v>4</v>
+      </c>
+      <c r="W8" s="30">
+        <v>1</v>
+      </c>
+      <c r="X8" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="23">
+        <v>0</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="35">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>0</v>
+      </c>
+      <c r="R9" s="35">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="30">
+        <v>0</v>
+      </c>
+      <c r="X9" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="23">
+        <v>0</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="30">
+        <v>0</v>
+      </c>
+      <c r="L10" s="35">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>0</v>
+      </c>
+      <c r="R10" s="35">
+        <v>1</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="W10" s="30">
+        <v>0</v>
+      </c>
+      <c r="X10" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AC10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AI10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="30">
+        <v>1</v>
+      </c>
+      <c r="L11" s="35">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>1</v>
+      </c>
+      <c r="R11" s="35">
+        <v>1</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="30">
+        <v>1</v>
+      </c>
+      <c r="X11" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AC11" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AI11" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="23">
+        <v>0</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <f>1 - (I9/(I9+I8))</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="30">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <f>1 - (O9/(O9+O8))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>0</v>
+      </c>
+      <c r="R12" s="35">
+        <v>1</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12">
+        <f>1 - (U9/(U9+U8))</f>
+        <v>0.8</v>
+      </c>
+      <c r="W12" s="30">
+        <v>0</v>
+      </c>
+      <c r="X12" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA12">
+        <f>1 - (AA9/(AA9+AA8))</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AC12" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG12">
+        <f>1 - (AG9/(AG9+AG8))</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM12">
+        <f>1 - (AM9/(AM9+AM8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="23">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <f>H8/(H8+H9)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="30">
+        <v>0</v>
+      </c>
+      <c r="L13" s="35">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <f>N8/(N8+N9)</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>0</v>
+      </c>
+      <c r="R13" s="31">
+        <v>1</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13">
+        <f>T8/(T8+T9)</f>
+        <v>0.8</v>
+      </c>
+      <c r="W13" s="30">
+        <v>0</v>
+      </c>
+      <c r="X13" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA13">
+        <f>Z8/(Z8+Z9)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG13">
+        <f>AF8/(AF8+AF9)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM13">
+        <f>AL8/(AL8+AL9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="23">
+        <v>1</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.35</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="K14" s="30">
+        <v>1</v>
+      </c>
+      <c r="L14" s="35">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>1</v>
+      </c>
+      <c r="R14" s="31">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="W14" s="30">
+        <v>1</v>
+      </c>
+      <c r="X14" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AC14" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AI14" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="25">
+        <v>0</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="32">
+        <v>0</v>
+      </c>
+      <c r="L15" s="36">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>0</v>
+      </c>
+      <c r="R15" s="33">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="W15" s="32">
+        <v>0</v>
+      </c>
+      <c r="X15" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AC15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AI15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AL15" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="21">
+        <f>I12</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="22">
+        <f>I13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="23">
+        <f>O12</f>
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="24">
+        <f>O13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="23">
+        <f>U12</f>
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="24">
+        <f>U13</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="23">
+        <f>AA12</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="C23" s="24">
+        <f>AA13</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="23">
+        <f>AG12</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="24">
+        <f>AG13</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="25">
+        <f>AM12</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="26">
+        <f>AM13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AM38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14:AD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="28">
+        <v>1</v>
+      </c>
+      <c r="L6" s="29">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>1</v>
+      </c>
+      <c r="R6" s="29">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="28">
+        <v>1</v>
+      </c>
+      <c r="X6" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC6" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K7" s="30">
+        <v>1</v>
+      </c>
+      <c r="L7" s="31">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>1</v>
+      </c>
+      <c r="R7" s="31">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="W7" s="30">
+        <v>1</v>
+      </c>
+      <c r="X7" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="AC7" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="AI7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30">
+        <v>1</v>
+      </c>
+      <c r="L8" s="31">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>1</v>
+      </c>
+      <c r="R8" s="31">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="T8" s="3">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
+        <v>4</v>
+      </c>
+      <c r="W8" s="30">
+        <v>1</v>
+      </c>
+      <c r="X8" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="23">
+        <v>0</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.65</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>0</v>
+      </c>
+      <c r="R9" s="31">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="30">
+        <v>0</v>
+      </c>
+      <c r="X9" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="23">
+        <v>0</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.65</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="K10" s="30">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>0</v>
+      </c>
+      <c r="R10" s="31">
+        <v>1</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="W10" s="30">
+        <v>0</v>
+      </c>
+      <c r="X10" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AC10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AI10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="30">
+        <v>1</v>
+      </c>
+      <c r="L11" s="31">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>1</v>
+      </c>
+      <c r="R11" s="31">
+        <v>1</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="30">
+        <v>1</v>
+      </c>
+      <c r="X11" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AC11" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AI11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="23">
+        <v>0</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <f>1 - (I9/(I9+I8))</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="30">
+        <v>0</v>
+      </c>
+      <c r="L12" s="31">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <f>1 - (O9/(O9+O8))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>0</v>
+      </c>
+      <c r="R12" s="31">
+        <v>1</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12">
+        <f>1 - (U9/(U9+U8))</f>
+        <v>0.8</v>
+      </c>
+      <c r="W12" s="30">
+        <v>0</v>
+      </c>
+      <c r="X12" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA12">
+        <f>1 - (AA9/(AA9+AA8))</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC12" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG12">
+        <f>1 - (AG9/(AG9+AG8))</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM12">
+        <f>1 - (AM9/(AM9+AM8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="23">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <f>H8/(H8+H9)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="30">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <f>N8/(N8+N9)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>0</v>
+      </c>
+      <c r="R13" s="31">
+        <v>1</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13">
+        <f>T8/(T8+T9)</f>
+        <v>0.8</v>
+      </c>
+      <c r="W13" s="30">
+        <v>0</v>
+      </c>
+      <c r="X13" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA13">
+        <f>Z8/(Z8+Z9)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG13">
+        <f>AF8/(AF8+AF9)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AI13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM13">
+        <f>AL8/(AL8+AL9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="23">
+        <v>1</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="K14" s="30">
+        <v>1</v>
+      </c>
+      <c r="L14" s="35">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>1</v>
+      </c>
+      <c r="R14" s="31">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="W14" s="30">
+        <v>1</v>
+      </c>
+      <c r="X14" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="AC14" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="AI14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="25">
+        <v>0</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>0</v>
+      </c>
+      <c r="R15" s="26">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="W15" s="32">
+        <v>0</v>
+      </c>
+      <c r="X15" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AC15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AI15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AL15" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="21">
+        <f>I12</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="22">
+        <f>I13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="23">
+        <f>O12</f>
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="24">
+        <f>O13</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="23">
+        <f>U12</f>
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="24">
+        <f>U13</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="23">
+        <f>AA12</f>
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="24">
+        <f>AA13</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="23">
+        <f>AG12</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="24">
+        <f>AG13</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="25">
+        <f>AM12</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="26">
+        <f>AM13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="17" t="s">
         <v>28</v>
       </c>
